--- a/scrapers/TA/scrapes/2. Run/TABLEAU HOTELS UND KONTROLLE/Edinburgh_ready_new.xlsx
+++ b/scrapers/TA/scrapes/2. Run/TABLEAU HOTELS UND KONTROLLE/Edinburgh_ready_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TobiasRordorf/Desktop/UNI/MBI HSG/4. Semester/Python/GitHub/hotelierchallenge/scrapers/TA/scrapes/2. Run/TABLEAU HOTELS UND KONTROLLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF011F6-97D2-0B48-891E-AA00A914AA24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3667BFA6-90BD-B440-9B39-D5DFCEECA945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2269,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G459"/>
+  <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="I438" sqref="I438"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14012,7 +14012,7 @@
         <v>413</v>
       </c>
       <c r="C452" s="1">
-        <f t="shared" ref="C452:C459" si="22">((A452-$A$2)/$A$2)+1</f>
+        <f t="shared" ref="C452:C460" si="22">((A452-$A$2)/$A$2)+1</f>
         <v>0.70789473684210524</v>
       </c>
       <c r="D452">
@@ -14211,6 +14211,9 @@
         <f t="shared" si="21"/>
         <v>True</v>
       </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C460" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B461" xr:uid="{00000000-0009-0000-0000-000000000000}">
